--- a/biology/Zoologie/Chart_polski/Chart_polski.xlsx
+++ b/biology/Zoologie/Chart_polski/Chart_polski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le lévrier polonais (chart polski) est un lévrier à poil court, utilisé pour la chasse à vue. La Fédération cynologique internationale l'a répertorié dans le groupe 10, section 3, standard no 333.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lévrier de grande taille, puissant, résistant et rapide, descendant des lévriers d'Asie. En France, le chart polski reste une race comptant peu d'inscriptions au LOF (en 2007, il y avait environ 30 inscrits).
 Vitesse de pointe : 70 à 80 km/h sur 300 mètres.</t>
@@ -543,7 +557,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">.
 Cette race ancienne est connue dès le XIIIe siècle. Utilisé pour chasser le lièvre, le renard, le chevreuil, l'outarde, le Lévrier Polonais est aussi capable de s'attaquer aux loups.
@@ -575,7 +591,9 @@
           <t>Caractère</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un lévrier de caractère doux, courageux, sportif et réservé mais sûr de lui. Ce compagnon, qui adore ses maîtres, a une grande force de caractère, sa méfiance vis-à-vis des étrangers peut l'amener à être un bon gardien.
 Ayant besoin d'une socialisation précoce et ferme, il devra donc être éduqué correctement dès son plus jeune âge.
@@ -607,7 +625,9 @@
           <t>Santé</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Lévrier polonais n'est pas connu pour avoir de nombreuses et graves maladies génétiques.
 Il a tendance à vivre de 10 à 12 ans, voire dans quelques cas jusqu'à 15 ans.
@@ -639,7 +659,9 @@
           <t>Sport</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Épreuves de courses sur cynodromes ou racing.
 La poursuite à vue sur leurre (PVL) ou coursing.</t>
@@ -670,7 +692,9 @@
           <t>Photos</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
